--- a/DataSet/dataSetFormat.xlsx
+++ b/DataSet/dataSetFormat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3rd Sem\ITW\grade-calculator\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FF4CAC-5E72-4C38-B222-D49B48329622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBDEE7-741B-4EB8-AEC4-8E80457DABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD45DF66-ED8C-4EA3-93EC-754FDC705C56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -735,14 +735,17 @@
     <t>NAYAN Harsh</t>
   </si>
   <si>
-    <t>Total /*100</t>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>DSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,16 +765,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Nunito"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -794,24 +813,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{072CE35A-248A-4F39-A8EB-FF416F30DB40}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{7A1130D5-1772-4BD4-82CD-600DD1B101E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1123,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBC3E4E-F312-492C-9082-865AFF87331C}">
-  <dimension ref="A1:D116"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1175,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1188,11 @@
       <c r="D1" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1164,8 +1205,11 @@
       <c r="D2" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1178,8 +1222,11 @@
       <c r="D3" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1192,8 +1239,11 @@
       <c r="D4" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1206,8 +1256,11 @@
       <c r="D5" s="2">
         <v>71.111111111111114</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1220,8 +1273,11 @@
       <c r="D6" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1234,8 +1290,11 @@
       <c r="D7" s="2">
         <v>58.888888888888886</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1248,8 +1307,11 @@
       <c r="D8" s="2">
         <v>31.111111111111111</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1262,8 +1324,11 @@
       <c r="D9" s="2">
         <v>62.222222222222221</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1276,8 +1341,11 @@
       <c r="D10" s="2">
         <v>64.444444444444443</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1290,8 +1358,11 @@
       <c r="D11" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1304,8 +1375,11 @@
       <c r="D12" s="2">
         <v>82.222222222222229</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1318,8 +1392,11 @@
       <c r="D13" s="2">
         <v>96.666666666666671</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1332,8 +1409,11 @@
       <c r="D14" s="2">
         <v>94.444444444444443</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1346,8 +1426,11 @@
       <c r="D15" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1360,8 +1443,11 @@
       <c r="D16" s="2">
         <v>86.666666666666671</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1374,8 +1460,11 @@
       <c r="D17" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1388,8 +1477,11 @@
       <c r="D18" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1402,8 +1494,11 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1416,8 +1511,11 @@
       <c r="D20" s="2">
         <v>93.333333333333329</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1430,8 +1528,11 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1444,8 +1545,11 @@
       <c r="D22" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1458,8 +1562,11 @@
       <c r="D23" s="2">
         <v>56.666666666666664</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1472,8 +1579,11 @@
       <c r="D24" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1486,8 +1596,11 @@
       <c r="D25" s="2">
         <v>88.888888888888886</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1500,8 +1613,11 @@
       <c r="D26" s="2">
         <v>62.222222222222221</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1514,8 +1630,11 @@
       <c r="D27" s="2">
         <v>63.333333333333336</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1528,8 +1647,11 @@
       <c r="D28" s="2">
         <v>76.666666666666671</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1542,8 +1664,11 @@
       <c r="D29" s="2">
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1556,8 +1681,11 @@
       <c r="D30" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1570,8 +1698,11 @@
       <c r="D31" s="2">
         <v>71.111111111111114</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1584,8 +1715,11 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1598,8 +1732,11 @@
       <c r="D33" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1612,8 +1749,11 @@
       <c r="D34" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1626,8 +1766,11 @@
       <c r="D35" s="2">
         <v>94.444444444444443</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1640,8 +1783,11 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1654,8 +1800,11 @@
       <c r="D37" s="2">
         <v>96.666666666666671</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1668,8 +1817,11 @@
       <c r="D38" s="2">
         <v>86.666666666666671</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1682,8 +1834,11 @@
       <c r="D39" s="2">
         <v>71.111111111111114</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1696,8 +1851,11 @@
       <c r="D40" s="2">
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1710,8 +1868,11 @@
       <c r="D41" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1724,8 +1885,11 @@
       <c r="D42" s="2">
         <v>66.666666666666671</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1738,8 +1902,11 @@
       <c r="D43" s="2">
         <v>62.222222222222221</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1752,8 +1919,11 @@
       <c r="D44" s="2">
         <v>63.333333333333336</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1766,8 +1936,11 @@
       <c r="D45" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1780,8 +1953,11 @@
       <c r="D46" s="2">
         <v>87.777777777777771</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1794,8 +1970,11 @@
       <c r="D47" s="2">
         <v>88.888888888888886</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1808,8 +1987,11 @@
       <c r="D48" s="2">
         <v>68.888888888888886</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1822,8 +2004,11 @@
       <c r="D49" s="2">
         <v>72.222222222222229</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1836,8 +2021,11 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1850,8 +2038,11 @@
       <c r="D51" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1864,8 +2055,11 @@
       <c r="D52" s="2">
         <v>82.222222222222229</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1878,8 +2072,11 @@
       <c r="D53" s="2">
         <v>63.333333333333336</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1892,8 +2089,11 @@
       <c r="D54" s="2">
         <v>52.222222222222221</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1906,8 +2106,11 @@
       <c r="D55" s="2">
         <v>76.666666666666671</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1920,8 +2123,11 @@
       <c r="D56" s="2">
         <v>61.111111111111114</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1934,8 +2140,11 @@
       <c r="D57" s="2">
         <v>75.555555555555557</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1948,8 +2157,11 @@
       <c r="D58" s="2">
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1962,8 +2174,11 @@
       <c r="D59" s="2">
         <v>74.444444444444443</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1976,8 +2191,11 @@
       <c r="D60" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1990,8 +2208,11 @@
       <c r="D61" s="2">
         <v>87.777777777777771</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2004,8 +2225,11 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2018,8 +2242,11 @@
       <c r="D63" s="2">
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2032,8 +2259,11 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2046,8 +2276,11 @@
       <c r="D65" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2060,8 +2293,11 @@
       <c r="D66" s="2">
         <v>91.111111111111114</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2074,8 +2310,11 @@
       <c r="D67" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2088,8 +2327,11 @@
       <c r="D68" s="2">
         <v>61.111111111111114</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2102,8 +2344,11 @@
       <c r="D69" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2116,8 +2361,11 @@
       <c r="D70" s="2">
         <v>74.444444444444443</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2130,8 +2378,11 @@
       <c r="D71" s="2">
         <v>74.444444444444443</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2144,8 +2395,11 @@
       <c r="D72" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2158,8 +2412,11 @@
       <c r="D73" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2172,8 +2429,11 @@
       <c r="D74" s="2">
         <v>57.777777777777779</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2186,8 +2446,11 @@
       <c r="D75" s="2">
         <v>62.222222222222221</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2200,8 +2463,11 @@
       <c r="D76" s="2">
         <v>63.333333333333336</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2214,8 +2480,11 @@
       <c r="D77" s="2">
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2228,8 +2497,11 @@
       <c r="D78" s="2">
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2242,8 +2514,11 @@
       <c r="D79" s="2">
         <v>84.444444444444443</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2256,8 +2531,11 @@
       <c r="D80" s="2">
         <v>68.888888888888886</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2270,8 +2548,11 @@
       <c r="D81" s="2">
         <v>43.333333333333336</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2284,8 +2565,11 @@
       <c r="D82" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2298,8 +2582,11 @@
       <c r="D83" s="2">
         <v>58.888888888888886</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2312,8 +2599,11 @@
       <c r="D84" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2326,8 +2616,11 @@
       <c r="D85" s="2">
         <v>72.222222222222229</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2340,8 +2633,11 @@
       <c r="D86" s="2">
         <v>67.777777777777771</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2354,8 +2650,11 @@
       <c r="D87" s="2">
         <v>76.666666666666671</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2368,8 +2667,11 @@
       <c r="D88" s="2">
         <v>84.444444444444443</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2382,8 +2684,11 @@
       <c r="D89" s="2">
         <v>68.888888888888886</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2396,8 +2701,11 @@
       <c r="D90" s="2">
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2410,8 +2718,11 @@
       <c r="D91" s="2">
         <v>73.333333333333329</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2424,8 +2735,11 @@
       <c r="D92" s="2">
         <v>77.777777777777771</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2438,8 +2752,11 @@
       <c r="D93" s="2">
         <v>93.333333333333329</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2452,8 +2769,11 @@
       <c r="D94" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2466,8 +2786,11 @@
       <c r="D95" s="2">
         <v>81.111111111111114</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2480,8 +2803,11 @@
       <c r="D96" s="2">
         <v>64.444444444444443</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2494,8 +2820,11 @@
       <c r="D97" s="2">
         <v>85.555555555555557</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2508,8 +2837,11 @@
       <c r="D98" s="2">
         <v>54.444444444444443</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -2522,8 +2854,11 @@
       <c r="D99" s="2">
         <v>76.666666666666671</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -2536,8 +2871,11 @@
       <c r="D100" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -2550,8 +2888,11 @@
       <c r="D101" s="2">
         <v>82.222222222222229</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -2564,8 +2905,11 @@
       <c r="D102" s="2">
         <v>65.555555555555557</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -2578,8 +2922,11 @@
       <c r="D103" s="2">
         <v>84.444444444444443</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -2592,8 +2939,11 @@
       <c r="D104" s="2">
         <v>45.555555555555557</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2606,8 +2956,11 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2620,8 +2973,11 @@
       <c r="D106" s="2">
         <v>45.555555555555557</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -2634,8 +2990,11 @@
       <c r="D107" s="2">
         <v>56.666666666666664</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -2648,8 +3007,11 @@
       <c r="D108" s="2">
         <v>72.222222222222229</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -2662,8 +3024,11 @@
       <c r="D109" s="2">
         <v>42.222222222222221</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -2676,8 +3041,11 @@
       <c r="D110" s="2">
         <v>16.666666666666668</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -2690,8 +3058,11 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -2704,8 +3075,11 @@
       <c r="D112" s="2">
         <v>55.555555555555557</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -2718,8 +3092,11 @@
       <c r="D113" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -2732,8 +3109,11 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -2746,8 +3126,11 @@
       <c r="D115" s="2">
         <v>74.444444444444443</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -2758,6 +3141,9 @@
         <v>232</v>
       </c>
       <c r="D116" s="2">
+        <v>0</v>
+      </c>
+      <c r="E116" s="7">
         <v>0</v>
       </c>
     </row>

--- a/DataSet/dataSetFormat.xlsx
+++ b/DataSet/dataSetFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3rd Sem\ITW\grade-calculator\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BBDEE7-741B-4EB8-AEC4-8E80457DABC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B9149A-88A0-40E1-9331-CC402FCCFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD45DF66-ED8C-4EA3-93EC-754FDC705C56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -739,6 +739,15 @@
   </si>
   <si>
     <t>DSA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>EEE</t>
+  </si>
+  <si>
+    <t>MNG</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBC3E4E-F312-492C-9082-865AFF87331C}">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,9 +1182,11 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1202,17 @@
       <c r="E1" s="4" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1208,8 +1228,17 @@
       <c r="E2" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G2" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H2" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1225,8 +1254,17 @@
       <c r="E3" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G3" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H3" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1242,8 +1280,17 @@
       <c r="E4" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G4" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H4" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1259,8 +1306,17 @@
       <c r="E5" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="G5" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H5" s="2">
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1276,8 +1332,17 @@
       <c r="E6" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G6" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H6" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1293,8 +1358,17 @@
       <c r="E7" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>58.888888888888886</v>
+      </c>
+      <c r="G7" s="2">
+        <v>58.888888888888886</v>
+      </c>
+      <c r="H7" s="2">
+        <v>58.888888888888886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1310,8 +1384,17 @@
       <c r="E8" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="G8" s="2">
+        <v>31.111111111111111</v>
+      </c>
+      <c r="H8" s="2">
+        <v>31.111111111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1327,8 +1410,17 @@
       <c r="E9" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G9" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H9" s="2">
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1344,8 +1436,17 @@
       <c r="E10" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="G10" s="2">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="H10" s="2">
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1361,8 +1462,17 @@
       <c r="E11" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1378,8 +1488,17 @@
       <c r="E12" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="G12" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="H12" s="2">
+        <v>82.222222222222229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1395,8 +1514,17 @@
       <c r="E13" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="G13" s="2">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="H13" s="2">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1412,8 +1540,17 @@
       <c r="E14" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G14" s="2">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="H14" s="2">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1429,8 +1566,17 @@
       <c r="E15" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>90</v>
+      </c>
+      <c r="G15" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1446,8 +1592,17 @@
       <c r="E16" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G16" s="2">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H16" s="2">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1463,8 +1618,17 @@
       <c r="E17" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2">
+        <v>80</v>
+      </c>
+      <c r="H17" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1480,8 +1644,17 @@
       <c r="E18" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G18" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H18" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1497,8 +1670,17 @@
       <c r="E19" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1514,8 +1696,17 @@
       <c r="E20" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G20" s="2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H20" s="2">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1531,8 +1722,17 @@
       <c r="E21" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1548,8 +1748,17 @@
       <c r="E22" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>70</v>
+      </c>
+      <c r="G22" s="2">
+        <v>70</v>
+      </c>
+      <c r="H22" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1565,8 +1774,17 @@
       <c r="E23" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G23" s="2">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="H23" s="2">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1582,8 +1800,17 @@
       <c r="E24" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G24" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H24" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1599,8 +1826,17 @@
       <c r="E25" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G25" s="2">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="H25" s="2">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1616,8 +1852,17 @@
       <c r="E26" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G26" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H26" s="2">
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1633,8 +1878,17 @@
       <c r="E27" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G27" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="H27" s="2">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1650,8 +1904,17 @@
       <c r="E28" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G28" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H28" s="2">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1667,8 +1930,17 @@
       <c r="E29" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G29" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H29" s="2">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1684,8 +1956,17 @@
       <c r="E30" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G30" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H30" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1701,8 +1982,17 @@
       <c r="E31" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="G31" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H31" s="2">
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1718,8 +2008,17 @@
       <c r="E32" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1735,8 +2034,17 @@
       <c r="E33" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G33" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H33" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1752,8 +2060,17 @@
       <c r="E34" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G34" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H34" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1769,8 +2086,17 @@
       <c r="E35" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="2">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="G35" s="2">
+        <v>94.444444444444443</v>
+      </c>
+      <c r="H35" s="2">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1786,8 +2112,17 @@
       <c r="E36" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1803,8 +2138,17 @@
       <c r="E37" s="5">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="G37" s="2">
+        <v>96.666666666666671</v>
+      </c>
+      <c r="H37" s="2">
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1820,8 +2164,17 @@
       <c r="E38" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="2">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G38" s="2">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H38" s="2">
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1837,8 +2190,17 @@
       <c r="E39" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="G39" s="2">
+        <v>71.111111111111114</v>
+      </c>
+      <c r="H39" s="2">
+        <v>71.111111111111114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1854,8 +2216,17 @@
       <c r="E40" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G40" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H40" s="2">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1871,8 +2242,17 @@
       <c r="E41" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G41" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H41" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1888,8 +2268,17 @@
       <c r="E42" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G42" s="2">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H42" s="2">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1905,8 +2294,17 @@
       <c r="E43" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G43" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H43" s="2">
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1922,8 +2320,17 @@
       <c r="E44" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G44" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="H44" s="2">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1939,8 +2346,17 @@
       <c r="E45" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G45" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H45" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1956,8 +2372,17 @@
       <c r="E46" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>87.777777777777771</v>
+      </c>
+      <c r="G46" s="2">
+        <v>87.777777777777771</v>
+      </c>
+      <c r="H46" s="2">
+        <v>87.777777777777771</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1973,8 +2398,17 @@
       <c r="E47" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="2">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G47" s="2">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="H47" s="2">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1990,8 +2424,17 @@
       <c r="E48" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="G48" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="H48" s="2">
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2007,8 +2450,17 @@
       <c r="E49" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="G49" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="H49" s="2">
+        <v>72.222222222222229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2024,8 +2476,17 @@
       <c r="E50" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2041,8 +2502,17 @@
       <c r="E51" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G51" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H51" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2058,8 +2528,17 @@
       <c r="E52" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="G52" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="H52" s="2">
+        <v>82.222222222222229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2075,8 +2554,17 @@
       <c r="E53" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G53" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="H53" s="2">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2092,8 +2580,17 @@
       <c r="E54" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2">
+        <v>52.222222222222221</v>
+      </c>
+      <c r="G54" s="2">
+        <v>52.222222222222221</v>
+      </c>
+      <c r="H54" s="2">
+        <v>52.222222222222221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2109,8 +2606,17 @@
       <c r="E55" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G55" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H55" s="2">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2126,8 +2632,17 @@
       <c r="E56" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="G56" s="2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="H56" s="2">
+        <v>61.111111111111114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2143,8 +2658,17 @@
       <c r="E57" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="2">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="G57" s="2">
+        <v>75.555555555555557</v>
+      </c>
+      <c r="H57" s="2">
+        <v>75.555555555555557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2160,8 +2684,17 @@
       <c r="E58" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G58" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H58" s="2">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2177,8 +2710,17 @@
       <c r="E59" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="G59" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="H59" s="2">
+        <v>74.444444444444443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2194,8 +2736,17 @@
       <c r="E60" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G60" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H60" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2211,8 +2762,17 @@
       <c r="E61" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="2">
+        <v>87.777777777777771</v>
+      </c>
+      <c r="G61" s="2">
+        <v>87.777777777777771</v>
+      </c>
+      <c r="H61" s="2">
+        <v>87.777777777777771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2228,8 +2788,17 @@
       <c r="E62" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2245,8 +2814,17 @@
       <c r="E63" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G63" s="2">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H63" s="2">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2262,8 +2840,17 @@
       <c r="E64" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2279,8 +2866,17 @@
       <c r="E65" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <v>60</v>
+      </c>
+      <c r="G65" s="2">
+        <v>60</v>
+      </c>
+      <c r="H65" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2296,8 +2892,17 @@
       <c r="E66" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="G66" s="2">
+        <v>91.111111111111114</v>
+      </c>
+      <c r="H66" s="2">
+        <v>91.111111111111114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2313,8 +2918,17 @@
       <c r="E67" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G67" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H67" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2330,8 +2944,17 @@
       <c r="E68" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="G68" s="2">
+        <v>61.111111111111114</v>
+      </c>
+      <c r="H68" s="2">
+        <v>61.111111111111114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2347,8 +2970,17 @@
       <c r="E69" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G69" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H69" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2364,8 +2996,17 @@
       <c r="E70" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="G70" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="H70" s="2">
+        <v>74.444444444444443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2381,8 +3022,17 @@
       <c r="E71" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="G71" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="H71" s="2">
+        <v>74.444444444444443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -2398,8 +3048,17 @@
       <c r="E72" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <v>60</v>
+      </c>
+      <c r="G72" s="2">
+        <v>60</v>
+      </c>
+      <c r="H72" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2415,8 +3074,17 @@
       <c r="E73" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G73" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H73" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2432,8 +3100,17 @@
       <c r="E74" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="2">
+        <v>57.777777777777779</v>
+      </c>
+      <c r="G74" s="2">
+        <v>57.777777777777779</v>
+      </c>
+      <c r="H74" s="2">
+        <v>57.777777777777779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2449,8 +3126,17 @@
       <c r="E75" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="G75" s="2">
+        <v>62.222222222222221</v>
+      </c>
+      <c r="H75" s="2">
+        <v>62.222222222222221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -2466,8 +3152,17 @@
       <c r="E76" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="G76" s="2">
+        <v>63.333333333333336</v>
+      </c>
+      <c r="H76" s="2">
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -2483,8 +3178,17 @@
       <c r="E77" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G77" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H77" s="2">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -2500,8 +3204,17 @@
       <c r="E78" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G78" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H78" s="2">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -2517,8 +3230,17 @@
       <c r="E79" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G79" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H79" s="2">
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -2534,8 +3256,17 @@
       <c r="E80" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="G80" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="H80" s="2">
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -2551,8 +3282,17 @@
       <c r="E81" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="2">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -2568,8 +3308,17 @@
       <c r="E82" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G82" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H82" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -2585,8 +3334,17 @@
       <c r="E83" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>58.888888888888886</v>
+      </c>
+      <c r="G83" s="2">
+        <v>58.888888888888886</v>
+      </c>
+      <c r="H83" s="2">
+        <v>58.888888888888886</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -2602,8 +3360,17 @@
       <c r="E84" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G84" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H84" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -2619,8 +3386,17 @@
       <c r="E85" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="G85" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="H85" s="2">
+        <v>72.222222222222229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -2636,8 +3412,17 @@
       <c r="E86" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="G86" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="H86" s="2">
+        <v>67.777777777777771</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -2653,8 +3438,17 @@
       <c r="E87" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G87" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H87" s="2">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -2670,8 +3464,17 @@
       <c r="E88" s="5">
         <v>41</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G88" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H88" s="2">
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -2687,8 +3490,17 @@
       <c r="E89" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="G89" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="H89" s="2">
+        <v>68.888888888888886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2704,8 +3516,17 @@
       <c r="E90" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G90" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H90" s="2">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2721,8 +3542,17 @@
       <c r="E91" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="2">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G91" s="2">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H91" s="2">
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2738,8 +3568,17 @@
       <c r="E92" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="G92" s="2">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="H92" s="2">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2755,8 +3594,17 @@
       <c r="E93" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="G93" s="2">
+        <v>93.333333333333329</v>
+      </c>
+      <c r="H93" s="2">
+        <v>93.333333333333329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2772,8 +3620,17 @@
       <c r="E94" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" s="2">
+        <v>50</v>
+      </c>
+      <c r="H94" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2789,8 +3646,17 @@
       <c r="E95" s="6">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="G95" s="2">
+        <v>81.111111111111114</v>
+      </c>
+      <c r="H95" s="2">
+        <v>81.111111111111114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2806,8 +3672,17 @@
       <c r="E96" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="G96" s="2">
+        <v>64.444444444444443</v>
+      </c>
+      <c r="H96" s="2">
+        <v>64.444444444444443</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2823,8 +3698,17 @@
       <c r="E97" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F97" s="2">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="G97" s="2">
+        <v>85.555555555555557</v>
+      </c>
+      <c r="H97" s="2">
+        <v>85.555555555555557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2840,8 +3724,17 @@
       <c r="E98" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F98" s="2">
+        <v>54.444444444444443</v>
+      </c>
+      <c r="G98" s="2">
+        <v>54.444444444444443</v>
+      </c>
+      <c r="H98" s="2">
+        <v>54.444444444444443</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -2857,8 +3750,17 @@
       <c r="E99" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F99" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G99" s="2">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="H99" s="2">
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -2874,8 +3776,17 @@
       <c r="E100" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F100" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -2891,8 +3802,17 @@
       <c r="E101" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F101" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="G101" s="2">
+        <v>82.222222222222229</v>
+      </c>
+      <c r="H101" s="2">
+        <v>82.222222222222229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -2908,8 +3828,17 @@
       <c r="E102" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F102" s="2">
+        <v>65.555555555555557</v>
+      </c>
+      <c r="G102" s="2">
+        <v>65.555555555555557</v>
+      </c>
+      <c r="H102" s="2">
+        <v>65.555555555555557</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -2925,8 +3854,17 @@
       <c r="E103" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F103" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="G103" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="H103" s="2">
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -2942,8 +3880,17 @@
       <c r="E104" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F104" s="2">
+        <v>45.555555555555557</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45.555555555555557</v>
+      </c>
+      <c r="H104" s="2">
+        <v>45.555555555555557</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2959,8 +3906,17 @@
       <c r="E105" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F105" s="2">
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2976,8 +3932,17 @@
       <c r="E106" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F106" s="2">
+        <v>45.555555555555557</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45.555555555555557</v>
+      </c>
+      <c r="H106" s="2">
+        <v>45.555555555555557</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -2993,8 +3958,17 @@
       <c r="E107" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F107" s="2">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G107" s="2">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="H107" s="2">
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3010,8 +3984,17 @@
       <c r="E108" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F108" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="G108" s="2">
+        <v>72.222222222222229</v>
+      </c>
+      <c r="H108" s="2">
+        <v>72.222222222222229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3027,8 +4010,17 @@
       <c r="E109" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F109" s="2">
+        <v>42.222222222222221</v>
+      </c>
+      <c r="G109" s="2">
+        <v>42.222222222222221</v>
+      </c>
+      <c r="H109" s="2">
+        <v>42.222222222222221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3044,8 +4036,17 @@
       <c r="E110" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F110" s="2">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G110" s="2">
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H110" s="2">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -3061,8 +4062,17 @@
       <c r="E111" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -3078,8 +4088,17 @@
       <c r="E112" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F112" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="G112" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="H112" s="2">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -3095,8 +4114,17 @@
       <c r="E113" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F113" s="2">
+        <v>70</v>
+      </c>
+      <c r="G113" s="2">
+        <v>70</v>
+      </c>
+      <c r="H113" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -3112,8 +4140,17 @@
       <c r="E114" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -3129,8 +4166,17 @@
       <c r="E115" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F115" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="G115" s="2">
+        <v>74.444444444444443</v>
+      </c>
+      <c r="H115" s="2">
+        <v>74.444444444444443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -3144,6 +4190,15 @@
         <v>0</v>
       </c>
       <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
         <v>0</v>
       </c>
     </row>

--- a/DataSet/dataSetFormat.xlsx
+++ b/DataSet/dataSetFormat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\3rd Sem\ITW\grade-calculator\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\3rd Sem\ITW\Project\grade-calculator\DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B9149A-88A0-40E1-9331-CC402FCCFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56C830D-916B-4878-A581-BE0359A2505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD45DF66-ED8C-4EA3-93EC-754FDC705C56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD45DF66-ED8C-4EA3-93EC-754FDC705C56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -741,20 +739,20 @@
     <t>DSA</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>EEE</t>
-  </si>
-  <si>
-    <t>MNG</t>
+    <t>EDC</t>
+  </si>
+  <si>
+    <t>M&amp;G</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +782,12 @@
       <color theme="1"/>
       <name val="Nunito"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -799,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -833,13 +837,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,6 +888,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,20 +1213,18 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="6" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,17 +1240,17 @@
       <c r="E1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1228,17 +1266,17 @@
       <c r="E2" s="5">
         <v>77</v>
       </c>
-      <c r="F2" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G2" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H2" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F2" s="8">
+        <v>91</v>
+      </c>
+      <c r="G2">
+        <v>71</v>
+      </c>
+      <c r="H2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1254,17 +1292,17 @@
       <c r="E3" s="5">
         <v>76</v>
       </c>
-      <c r="F3" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G3" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H3" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="9">
+        <v>92</v>
+      </c>
+      <c r="G3">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1280,17 +1318,17 @@
       <c r="E4" s="5">
         <v>82</v>
       </c>
-      <c r="F4" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G4" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H4" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F4" s="9">
+        <v>82</v>
+      </c>
+      <c r="G4">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1306,17 +1344,17 @@
       <c r="E5" s="5">
         <v>72</v>
       </c>
-      <c r="F5" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="G5" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="H5" s="2">
-        <v>71.111111111111114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F5" s="9">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>64</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1332,17 +1370,17 @@
       <c r="E6" s="5">
         <v>48</v>
       </c>
-      <c r="F6" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G6" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H6" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F6" s="9">
+        <v>84</v>
+      </c>
+      <c r="G6">
+        <v>68</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1358,17 +1396,17 @@
       <c r="E7" s="5">
         <v>42</v>
       </c>
-      <c r="F7" s="2">
-        <v>58.888888888888886</v>
-      </c>
-      <c r="G7" s="2">
-        <v>58.888888888888886</v>
-      </c>
-      <c r="H7" s="2">
-        <v>58.888888888888886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F7" s="9">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>49</v>
+      </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1384,17 +1422,17 @@
       <c r="E8" s="5">
         <v>51</v>
       </c>
-      <c r="F8" s="2">
-        <v>31.111111111111111</v>
-      </c>
-      <c r="G8" s="2">
-        <v>31.111111111111111</v>
-      </c>
-      <c r="H8" s="2">
-        <v>31.111111111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F8" s="9">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1410,17 +1448,17 @@
       <c r="E9" s="5">
         <v>37</v>
       </c>
-      <c r="F9" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="G9" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="H9" s="2">
-        <v>62.222222222222221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" s="9">
+        <v>77</v>
+      </c>
+      <c r="G9">
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1436,17 +1474,17 @@
       <c r="E10" s="5">
         <v>41</v>
       </c>
-      <c r="F10" s="2">
-        <v>64.444444444444443</v>
-      </c>
-      <c r="G10" s="2">
-        <v>64.444444444444443</v>
-      </c>
-      <c r="H10" s="2">
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F10" s="9">
+        <v>71</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1462,17 +1500,17 @@
       <c r="E11" s="5">
         <v>36</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
+        <v>72</v>
+      </c>
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="G11" s="2">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1488,17 +1526,17 @@
       <c r="E12" s="5">
         <v>70</v>
       </c>
-      <c r="F12" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="G12" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="H12" s="2">
-        <v>82.222222222222229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F12" s="9">
+        <v>80</v>
+      </c>
+      <c r="G12">
+        <v>79</v>
+      </c>
+      <c r="H12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1514,17 +1552,17 @@
       <c r="E13" s="5">
         <v>80</v>
       </c>
-      <c r="F13" s="2">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="G13" s="2">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="H13" s="2">
-        <v>96.666666666666671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F13" s="9">
+        <v>82</v>
+      </c>
+      <c r="G13">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1540,17 +1578,17 @@
       <c r="E14" s="5">
         <v>71</v>
       </c>
-      <c r="F14" s="2">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="G14" s="2">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="H14" s="2">
-        <v>94.444444444444443</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F14" s="9">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>79</v>
+      </c>
+      <c r="H14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1566,17 +1604,17 @@
       <c r="E15" s="5">
         <v>65</v>
       </c>
-      <c r="F15" s="2">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2">
-        <v>90</v>
-      </c>
-      <c r="H15" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F15" s="9">
+        <v>84</v>
+      </c>
+      <c r="G15">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1592,17 +1630,17 @@
       <c r="E16" s="5">
         <v>65</v>
       </c>
-      <c r="F16" s="2">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="G16" s="2">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H16" s="2">
-        <v>86.666666666666671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="9">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>82</v>
+      </c>
+      <c r="H16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1618,17 +1656,17 @@
       <c r="E17" s="5">
         <v>57</v>
       </c>
-      <c r="F17" s="2">
-        <v>80</v>
-      </c>
-      <c r="G17" s="2">
-        <v>80</v>
-      </c>
-      <c r="H17" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F17" s="9">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1644,17 +1682,17 @@
       <c r="E18" s="5">
         <v>73</v>
       </c>
-      <c r="F18" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G18" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H18" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F18" s="9">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1665,22 +1703,22 @@
         <v>38</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5">
         <v>71</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F19" s="9">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>85</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1696,17 +1734,17 @@
       <c r="E20" s="5">
         <v>57</v>
       </c>
-      <c r="F20" s="2">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G20" s="2">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="H20" s="2">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F20" s="9">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>85</v>
+      </c>
+      <c r="H20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1717,22 +1755,22 @@
         <v>42</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5">
         <v>59</v>
       </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F21" s="9">
+        <v>46</v>
+      </c>
+      <c r="G21">
+        <v>39</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1748,17 +1786,17 @@
       <c r="E22" s="5">
         <v>60</v>
       </c>
-      <c r="F22" s="2">
-        <v>70</v>
-      </c>
-      <c r="G22" s="2">
-        <v>70</v>
-      </c>
-      <c r="H22" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F22" s="9">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>84</v>
+      </c>
+      <c r="H22">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1774,17 +1812,17 @@
       <c r="E23" s="5">
         <v>75</v>
       </c>
-      <c r="F23" s="2">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="G23" s="2">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="H23" s="2">
-        <v>56.666666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F23" s="9">
+        <v>89</v>
+      </c>
+      <c r="G23">
+        <v>82</v>
+      </c>
+      <c r="H23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1800,17 +1838,17 @@
       <c r="E24" s="5">
         <v>41</v>
       </c>
-      <c r="F24" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G24" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H24" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F24" s="9">
+        <v>88</v>
+      </c>
+      <c r="G24">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1826,17 +1864,17 @@
       <c r="E25" s="5">
         <v>41</v>
       </c>
-      <c r="F25" s="2">
-        <v>88.888888888888886</v>
-      </c>
-      <c r="G25" s="2">
-        <v>88.888888888888886</v>
-      </c>
-      <c r="H25" s="2">
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F25" s="9">
+        <v>85</v>
+      </c>
+      <c r="G25">
+        <v>83</v>
+      </c>
+      <c r="H25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1852,17 +1890,17 @@
       <c r="E26" s="5">
         <v>54</v>
       </c>
-      <c r="F26" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="G26" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="H26" s="2">
-        <v>62.222222222222221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F26" s="9">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>52</v>
+      </c>
+      <c r="H26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1878,17 +1916,17 @@
       <c r="E27" s="5">
         <v>45</v>
       </c>
-      <c r="F27" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="G27" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="H27" s="2">
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F27" s="9">
+        <v>64</v>
+      </c>
+      <c r="G27">
+        <v>59</v>
+      </c>
+      <c r="H27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1904,17 +1942,17 @@
       <c r="E28" s="5">
         <v>38</v>
       </c>
-      <c r="F28" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="G28" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="H28" s="2">
-        <v>76.666666666666671</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F28" s="9">
+        <v>86</v>
+      </c>
+      <c r="G28">
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1930,17 +1968,17 @@
       <c r="E29" s="5">
         <v>46</v>
       </c>
-      <c r="F29" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G29" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="H29" s="2">
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F29" s="9">
+        <v>81</v>
+      </c>
+      <c r="G29">
+        <v>70</v>
+      </c>
+      <c r="H29">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1956,17 +1994,17 @@
       <c r="E30" s="5">
         <v>51</v>
       </c>
-      <c r="F30" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G30" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H30" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F30" s="9">
+        <v>79</v>
+      </c>
+      <c r="G30">
+        <v>64</v>
+      </c>
+      <c r="H30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1982,17 +2020,17 @@
       <c r="E31" s="5">
         <v>66</v>
       </c>
-      <c r="F31" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="G31" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="H31" s="2">
-        <v>71.111111111111114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F31" s="9">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>58</v>
+      </c>
+      <c r="H31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2003,22 +2041,22 @@
         <v>64</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" s="5">
         <v>60</v>
       </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F32" s="9">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2034,17 +2072,17 @@
       <c r="E33" s="5">
         <v>79</v>
       </c>
-      <c r="F33" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G33" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H33" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F33" s="9">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>71</v>
+      </c>
+      <c r="H33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2060,17 +2098,17 @@
       <c r="E34" s="5">
         <v>80</v>
       </c>
-      <c r="F34" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G34" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H34" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F34" s="9">
+        <v>77</v>
+      </c>
+      <c r="G34">
+        <v>75</v>
+      </c>
+      <c r="H34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2086,17 +2124,17 @@
       <c r="E35" s="5">
         <v>69</v>
       </c>
-      <c r="F35" s="2">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="G35" s="2">
-        <v>94.444444444444443</v>
-      </c>
-      <c r="H35" s="2">
-        <v>94.444444444444443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F35" s="9">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>69</v>
+      </c>
+      <c r="H35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2107,22 +2145,22 @@
         <v>72</v>
       </c>
       <c r="D36" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E36" s="5">
         <v>39</v>
       </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F36" s="9">
+        <v>47</v>
+      </c>
+      <c r="G36">
+        <v>85</v>
+      </c>
+      <c r="H36">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2138,17 +2176,17 @@
       <c r="E37" s="5">
         <v>91</v>
       </c>
-      <c r="F37" s="2">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="G37" s="2">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="H37" s="2">
-        <v>96.666666666666671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F37" s="9">
+        <v>86</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2164,17 +2202,17 @@
       <c r="E38" s="5">
         <v>45</v>
       </c>
-      <c r="F38" s="2">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="G38" s="2">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H38" s="2">
-        <v>86.666666666666671</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F38" s="9">
+        <v>87</v>
+      </c>
+      <c r="G38">
+        <v>83</v>
+      </c>
+      <c r="H38">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2190,17 +2228,17 @@
       <c r="E39" s="5">
         <v>47</v>
       </c>
-      <c r="F39" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="G39" s="2">
-        <v>71.111111111111114</v>
-      </c>
-      <c r="H39" s="2">
-        <v>71.111111111111114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F39" s="9">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>74</v>
+      </c>
+      <c r="H39">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2216,17 +2254,17 @@
       <c r="E40" s="5">
         <v>42</v>
       </c>
-      <c r="F40" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G40" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="H40" s="2">
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F40" s="9">
+        <v>86</v>
+      </c>
+      <c r="G40">
+        <v>75</v>
+      </c>
+      <c r="H40">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2242,17 +2280,17 @@
       <c r="E41" s="5">
         <v>58</v>
       </c>
-      <c r="F41" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G41" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H41" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F41" s="9">
+        <v>80</v>
+      </c>
+      <c r="G41">
+        <v>78</v>
+      </c>
+      <c r="H41">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2268,17 +2306,17 @@
       <c r="E42" s="5">
         <v>68</v>
       </c>
-      <c r="F42" s="2">
-        <v>66.666666666666671</v>
-      </c>
-      <c r="G42" s="2">
-        <v>66.666666666666671</v>
-      </c>
-      <c r="H42" s="2">
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F42" s="9">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>48</v>
+      </c>
+      <c r="H42">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2294,17 +2332,17 @@
       <c r="E43" s="5">
         <v>64</v>
       </c>
-      <c r="F43" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="G43" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="H43" s="2">
-        <v>62.222222222222221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F43" s="9">
+        <v>74</v>
+      </c>
+      <c r="G43">
+        <v>70</v>
+      </c>
+      <c r="H43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2320,17 +2358,17 @@
       <c r="E44" s="5">
         <v>36</v>
       </c>
-      <c r="F44" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="G44" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="H44" s="2">
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F44" s="9">
+        <v>74</v>
+      </c>
+      <c r="G44">
+        <v>57</v>
+      </c>
+      <c r="H44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2346,17 +2384,17 @@
       <c r="E45" s="5">
         <v>48</v>
       </c>
-      <c r="F45" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G45" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H45" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F45" s="9">
+        <v>96</v>
+      </c>
+      <c r="G45">
+        <v>74</v>
+      </c>
+      <c r="H45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2372,17 +2410,17 @@
       <c r="E46" s="5">
         <v>50</v>
       </c>
-      <c r="F46" s="2">
-        <v>87.777777777777771</v>
-      </c>
-      <c r="G46" s="2">
-        <v>87.777777777777771</v>
-      </c>
-      <c r="H46" s="2">
-        <v>87.777777777777771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F46" s="9">
+        <v>86</v>
+      </c>
+      <c r="G46">
+        <v>86</v>
+      </c>
+      <c r="H46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2398,17 +2436,17 @@
       <c r="E47" s="5">
         <v>45</v>
       </c>
-      <c r="F47" s="2">
-        <v>88.888888888888886</v>
-      </c>
-      <c r="G47" s="2">
-        <v>88.888888888888886</v>
-      </c>
-      <c r="H47" s="2">
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F47" s="9">
+        <v>88</v>
+      </c>
+      <c r="G47">
+        <v>66</v>
+      </c>
+      <c r="H47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2424,17 +2462,17 @@
       <c r="E48" s="5">
         <v>61</v>
       </c>
-      <c r="F48" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="G48" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="H48" s="2">
-        <v>68.888888888888886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F48" s="9">
+        <v>67</v>
+      </c>
+      <c r="G48">
+        <v>45</v>
+      </c>
+      <c r="H48">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2450,17 +2488,17 @@
       <c r="E49" s="5">
         <v>67</v>
       </c>
-      <c r="F49" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="G49" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="H49" s="2">
-        <v>72.222222222222229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F49" s="9">
+        <v>78</v>
+      </c>
+      <c r="G49">
+        <v>60</v>
+      </c>
+      <c r="H49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2471,22 +2509,22 @@
         <v>100</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E50" s="5">
         <v>35</v>
       </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F50" s="9">
+        <v>90</v>
+      </c>
+      <c r="G50">
+        <v>77</v>
+      </c>
+      <c r="H50">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2502,17 +2540,17 @@
       <c r="E51" s="5">
         <v>59</v>
       </c>
-      <c r="F51" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G51" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H51" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F51" s="9">
+        <v>81</v>
+      </c>
+      <c r="G51">
+        <v>74</v>
+      </c>
+      <c r="H51">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2528,17 +2566,17 @@
       <c r="E52" s="5">
         <v>64</v>
       </c>
-      <c r="F52" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="G52" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="H52" s="2">
-        <v>82.222222222222229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F52" s="9">
+        <v>91</v>
+      </c>
+      <c r="G52">
+        <v>82</v>
+      </c>
+      <c r="H52">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2554,17 +2592,17 @@
       <c r="E53" s="5">
         <v>37</v>
       </c>
-      <c r="F53" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="G53" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="H53" s="2">
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F53" s="9">
+        <v>74</v>
+      </c>
+      <c r="G53">
+        <v>75</v>
+      </c>
+      <c r="H53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2580,17 +2618,17 @@
       <c r="E54" s="5">
         <v>69</v>
       </c>
-      <c r="F54" s="2">
-        <v>52.222222222222221</v>
-      </c>
-      <c r="G54" s="2">
-        <v>52.222222222222221</v>
-      </c>
-      <c r="H54" s="2">
-        <v>52.222222222222221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F54" s="9">
+        <v>83</v>
+      </c>
+      <c r="G54">
+        <v>71</v>
+      </c>
+      <c r="H54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2606,17 +2644,17 @@
       <c r="E55" s="5">
         <v>53</v>
       </c>
-      <c r="F55" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="G55" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="H55" s="2">
-        <v>76.666666666666671</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F55" s="9">
+        <v>79</v>
+      </c>
+      <c r="G55">
+        <v>61</v>
+      </c>
+      <c r="H55">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2632,17 +2670,17 @@
       <c r="E56" s="5">
         <v>67</v>
       </c>
-      <c r="F56" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="G56" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="H56" s="2">
-        <v>61.111111111111114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F56" s="9">
+        <v>83</v>
+      </c>
+      <c r="G56">
+        <v>70</v>
+      </c>
+      <c r="H56">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2658,17 +2696,17 @@
       <c r="E57" s="5">
         <v>67</v>
       </c>
-      <c r="F57" s="2">
-        <v>75.555555555555557</v>
-      </c>
-      <c r="G57" s="2">
-        <v>75.555555555555557</v>
-      </c>
-      <c r="H57" s="2">
-        <v>75.555555555555557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F57" s="9">
+        <v>77</v>
+      </c>
+      <c r="G57">
+        <v>75</v>
+      </c>
+      <c r="H57">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2684,17 +2722,17 @@
       <c r="E58" s="5">
         <v>64</v>
       </c>
-      <c r="F58" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G58" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="H58" s="2">
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F58" s="9">
+        <v>82</v>
+      </c>
+      <c r="G58">
+        <v>79</v>
+      </c>
+      <c r="H58">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2710,17 +2748,17 @@
       <c r="E59" s="5">
         <v>57</v>
       </c>
-      <c r="F59" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="G59" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="H59" s="2">
-        <v>74.444444444444443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F59" s="9">
+        <v>92</v>
+      </c>
+      <c r="G59">
+        <v>75</v>
+      </c>
+      <c r="H59">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2736,17 +2774,17 @@
       <c r="E60" s="5">
         <v>71</v>
       </c>
-      <c r="F60" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G60" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H60" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F60" s="9">
+        <v>83</v>
+      </c>
+      <c r="G60">
+        <v>58</v>
+      </c>
+      <c r="H60">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2762,17 +2800,17 @@
       <c r="E61" s="5">
         <v>55</v>
       </c>
-      <c r="F61" s="2">
-        <v>87.777777777777771</v>
-      </c>
-      <c r="G61" s="2">
-        <v>87.777777777777771</v>
-      </c>
-      <c r="H61" s="2">
-        <v>87.777777777777771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F61" s="9">
+        <v>83</v>
+      </c>
+      <c r="G61">
+        <v>71</v>
+      </c>
+      <c r="H61">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2783,22 +2821,22 @@
         <v>124</v>
       </c>
       <c r="D62" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E62" s="5">
         <v>45</v>
       </c>
-      <c r="F62" s="2">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F62" s="9">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>45</v>
+      </c>
+      <c r="H62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2814,17 +2852,17 @@
       <c r="E63" s="5">
         <v>55</v>
       </c>
-      <c r="F63" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G63" s="2">
-        <v>83.333333333333329</v>
-      </c>
-      <c r="H63" s="2">
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F63" s="9">
+        <v>89</v>
+      </c>
+      <c r="G63">
+        <v>75</v>
+      </c>
+      <c r="H63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2835,22 +2873,22 @@
         <v>128</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E64" s="5">
         <v>84</v>
       </c>
-      <c r="F64" s="2">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F64" s="9">
+        <v>28</v>
+      </c>
+      <c r="G64">
+        <v>32</v>
+      </c>
+      <c r="H64">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2866,17 +2904,17 @@
       <c r="E65" s="5">
         <v>41</v>
       </c>
-      <c r="F65" s="2">
-        <v>60</v>
-      </c>
-      <c r="G65" s="2">
-        <v>60</v>
-      </c>
-      <c r="H65" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F65" s="9">
+        <v>83</v>
+      </c>
+      <c r="G65">
+        <v>80</v>
+      </c>
+      <c r="H65">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2892,17 +2930,17 @@
       <c r="E66" s="5">
         <v>48</v>
       </c>
-      <c r="F66" s="2">
-        <v>91.111111111111114</v>
-      </c>
-      <c r="G66" s="2">
-        <v>91.111111111111114</v>
-      </c>
-      <c r="H66" s="2">
-        <v>91.111111111111114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F66" s="9">
+        <v>81</v>
+      </c>
+      <c r="G66">
+        <v>70</v>
+      </c>
+      <c r="H66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2918,17 +2956,17 @@
       <c r="E67" s="5">
         <v>48</v>
       </c>
-      <c r="F67" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G67" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H67" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F67" s="9">
+        <v>63</v>
+      </c>
+      <c r="G67">
+        <v>64</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2944,17 +2982,17 @@
       <c r="E68" s="5">
         <v>38</v>
       </c>
-      <c r="F68" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="G68" s="2">
-        <v>61.111111111111114</v>
-      </c>
-      <c r="H68" s="2">
-        <v>61.111111111111114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F68" s="9">
+        <v>81</v>
+      </c>
+      <c r="G68">
+        <v>73</v>
+      </c>
+      <c r="H68">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2970,17 +3008,17 @@
       <c r="E69" s="5">
         <v>82</v>
       </c>
-      <c r="F69" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G69" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H69" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F69" s="9">
+        <v>76</v>
+      </c>
+      <c r="G69">
+        <v>57</v>
+      </c>
+      <c r="H69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2996,17 +3034,17 @@
       <c r="E70" s="5">
         <v>52</v>
       </c>
-      <c r="F70" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="G70" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="H70" s="2">
-        <v>74.444444444444443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F70" s="9">
+        <v>81</v>
+      </c>
+      <c r="G70">
+        <v>77</v>
+      </c>
+      <c r="H70">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3022,17 +3060,17 @@
       <c r="E71" s="5">
         <v>38</v>
       </c>
-      <c r="F71" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="G71" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="H71" s="2">
-        <v>74.444444444444443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F71" s="9">
+        <v>91</v>
+      </c>
+      <c r="G71">
+        <v>93</v>
+      </c>
+      <c r="H71">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3048,17 +3086,17 @@
       <c r="E72" s="5">
         <v>44</v>
       </c>
-      <c r="F72" s="2">
-        <v>60</v>
-      </c>
-      <c r="G72" s="2">
-        <v>60</v>
-      </c>
-      <c r="H72" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F72" s="9">
+        <v>77</v>
+      </c>
+      <c r="G72">
+        <v>53</v>
+      </c>
+      <c r="H72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3074,17 +3112,17 @@
       <c r="E73" s="5">
         <v>40</v>
       </c>
-      <c r="F73" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G73" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H73" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F73" s="9">
+        <v>74</v>
+      </c>
+      <c r="G73">
+        <v>71</v>
+      </c>
+      <c r="H73">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3100,17 +3138,17 @@
       <c r="E74" s="5">
         <v>60</v>
       </c>
-      <c r="F74" s="2">
-        <v>57.777777777777779</v>
-      </c>
-      <c r="G74" s="2">
-        <v>57.777777777777779</v>
-      </c>
-      <c r="H74" s="2">
-        <v>57.777777777777779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F74" s="9">
+        <v>83</v>
+      </c>
+      <c r="G74">
+        <v>51</v>
+      </c>
+      <c r="H74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3126,17 +3164,17 @@
       <c r="E75" s="5">
         <v>41</v>
       </c>
-      <c r="F75" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="G75" s="2">
-        <v>62.222222222222221</v>
-      </c>
-      <c r="H75" s="2">
-        <v>62.222222222222221</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F75" s="9">
+        <v>75</v>
+      </c>
+      <c r="G75">
+        <v>56</v>
+      </c>
+      <c r="H75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3152,17 +3190,17 @@
       <c r="E76" s="5">
         <v>52</v>
       </c>
-      <c r="F76" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="G76" s="2">
-        <v>63.333333333333336</v>
-      </c>
-      <c r="H76" s="2">
-        <v>63.333333333333336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F76" s="9">
+        <v>52</v>
+      </c>
+      <c r="G76">
+        <v>49</v>
+      </c>
+      <c r="H76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3178,17 +3216,17 @@
       <c r="E77" s="5">
         <v>56</v>
       </c>
-      <c r="F77" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="G77" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="H77" s="2">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F77" s="9">
+        <v>67</v>
+      </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3204,17 +3242,17 @@
       <c r="E78" s="5">
         <v>46</v>
       </c>
-      <c r="F78" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="G78" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="H78" s="2">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F78" s="9">
+        <v>79</v>
+      </c>
+      <c r="G78">
+        <v>47</v>
+      </c>
+      <c r="H78">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3230,17 +3268,17 @@
       <c r="E79" s="5">
         <v>64</v>
       </c>
-      <c r="F79" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="G79" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="H79" s="2">
-        <v>84.444444444444443</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F79" s="9">
+        <v>81</v>
+      </c>
+      <c r="G79">
+        <v>77</v>
+      </c>
+      <c r="H79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3256,17 +3294,17 @@
       <c r="E80" s="5">
         <v>44</v>
       </c>
-      <c r="F80" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="G80" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="H80" s="2">
-        <v>68.888888888888886</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F80" s="9">
+        <v>79</v>
+      </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+      <c r="H80">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3282,17 +3320,17 @@
       <c r="E81" s="5">
         <v>41</v>
       </c>
-      <c r="F81" s="2">
-        <v>43.333333333333336</v>
-      </c>
-      <c r="G81" s="2">
-        <v>43.333333333333336</v>
-      </c>
-      <c r="H81" s="2">
-        <v>43.333333333333336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F81" s="9">
+        <v>62</v>
+      </c>
+      <c r="G81">
+        <v>41</v>
+      </c>
+      <c r="H81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3308,17 +3346,17 @@
       <c r="E82" s="5">
         <v>66</v>
       </c>
-      <c r="F82" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G82" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H82" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F82" s="9">
+        <v>76</v>
+      </c>
+      <c r="G82">
+        <v>73</v>
+      </c>
+      <c r="H82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3334,17 +3372,17 @@
       <c r="E83" s="5">
         <v>71</v>
       </c>
-      <c r="F83" s="2">
-        <v>58.888888888888886</v>
-      </c>
-      <c r="G83" s="2">
-        <v>58.888888888888886</v>
-      </c>
-      <c r="H83" s="2">
-        <v>58.888888888888886</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F83" s="9">
+        <v>61</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3360,17 +3398,17 @@
       <c r="E84" s="5">
         <v>38</v>
       </c>
-      <c r="F84" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G84" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H84" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F84" s="9">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <v>84</v>
+      </c>
+      <c r="H84">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3386,17 +3424,17 @@
       <c r="E85" s="5">
         <v>61</v>
       </c>
-      <c r="F85" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="G85" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="H85" s="2">
-        <v>72.222222222222229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F85" s="9">
+        <v>83</v>
+      </c>
+      <c r="G85">
+        <v>71</v>
+      </c>
+      <c r="H85">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3412,17 +3450,17 @@
       <c r="E86" s="5">
         <v>35</v>
       </c>
-      <c r="F86" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="G86" s="2">
-        <v>67.777777777777771</v>
-      </c>
-      <c r="H86" s="2">
-        <v>67.777777777777771</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F86" s="9">
+        <v>88</v>
+      </c>
+      <c r="G86">
+        <v>63</v>
+      </c>
+      <c r="H86">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3438,17 +3476,17 @@
       <c r="E87" s="5">
         <v>60</v>
       </c>
-      <c r="F87" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="G87" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="H87" s="2">
-        <v>76.666666666666671</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F87" s="9">
+        <v>79</v>
+      </c>
+      <c r="G87">
+        <v>67</v>
+      </c>
+      <c r="H87">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3464,17 +3502,17 @@
       <c r="E88" s="5">
         <v>41</v>
       </c>
-      <c r="F88" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="G88" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="H88" s="2">
-        <v>84.444444444444443</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F88" s="9">
+        <v>82</v>
+      </c>
+      <c r="G88">
+        <v>60</v>
+      </c>
+      <c r="H88">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3490,17 +3528,17 @@
       <c r="E89" s="5">
         <v>56</v>
       </c>
-      <c r="F89" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="G89" s="2">
-        <v>68.888888888888886</v>
-      </c>
-      <c r="H89" s="2">
-        <v>68.888888888888886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F89" s="9">
+        <v>79</v>
+      </c>
+      <c r="G89">
+        <v>69</v>
+      </c>
+      <c r="H89">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3516,17 +3554,17 @@
       <c r="E90" s="5">
         <v>51</v>
       </c>
-      <c r="F90" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="G90" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="H90" s="2">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F90" s="9">
+        <v>81</v>
+      </c>
+      <c r="G90">
+        <v>54</v>
+      </c>
+      <c r="H90">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3542,17 +3580,17 @@
       <c r="E91" s="5">
         <v>80</v>
       </c>
-      <c r="F91" s="2">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="G91" s="2">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H91" s="2">
-        <v>73.333333333333329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F91" s="9">
+        <v>74</v>
+      </c>
+      <c r="G91">
+        <v>58</v>
+      </c>
+      <c r="H91">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3568,17 +3606,17 @@
       <c r="E92" s="5">
         <v>52</v>
       </c>
-      <c r="F92" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="G92" s="2">
-        <v>77.777777777777771</v>
-      </c>
-      <c r="H92" s="2">
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F92" s="9">
+        <v>87</v>
+      </c>
+      <c r="G92">
+        <v>71</v>
+      </c>
+      <c r="H92">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3594,17 +3632,17 @@
       <c r="E93" s="5">
         <v>35</v>
       </c>
-      <c r="F93" s="2">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G93" s="2">
-        <v>93.333333333333329</v>
-      </c>
-      <c r="H93" s="2">
-        <v>93.333333333333329</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F93" s="9">
+        <v>85</v>
+      </c>
+      <c r="G93">
+        <v>90</v>
+      </c>
+      <c r="H93">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3620,17 +3658,17 @@
       <c r="E94" s="5">
         <v>48</v>
       </c>
-      <c r="F94" s="2">
-        <v>50</v>
-      </c>
-      <c r="G94" s="2">
-        <v>50</v>
-      </c>
-      <c r="H94" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F94" s="9">
+        <v>82</v>
+      </c>
+      <c r="G94">
+        <v>74</v>
+      </c>
+      <c r="H94">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3646,17 +3684,17 @@
       <c r="E95" s="6">
         <v>32</v>
       </c>
-      <c r="F95" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="G95" s="2">
-        <v>81.111111111111114</v>
-      </c>
-      <c r="H95" s="2">
-        <v>81.111111111111114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F95" s="9">
+        <v>79</v>
+      </c>
+      <c r="G95">
+        <v>88</v>
+      </c>
+      <c r="H95">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3672,17 +3710,17 @@
       <c r="E96" s="5">
         <v>59</v>
       </c>
-      <c r="F96" s="2">
-        <v>64.444444444444443</v>
-      </c>
-      <c r="G96" s="2">
-        <v>64.444444444444443</v>
-      </c>
-      <c r="H96" s="2">
-        <v>64.444444444444443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F96" s="9">
+        <v>77</v>
+      </c>
+      <c r="G96">
+        <v>54</v>
+      </c>
+      <c r="H96">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3698,17 +3736,17 @@
       <c r="E97" s="5">
         <v>56</v>
       </c>
-      <c r="F97" s="2">
-        <v>85.555555555555557</v>
-      </c>
-      <c r="G97" s="2">
-        <v>85.555555555555557</v>
-      </c>
-      <c r="H97" s="2">
-        <v>85.555555555555557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F97" s="9">
+        <v>75</v>
+      </c>
+      <c r="G97">
+        <v>71</v>
+      </c>
+      <c r="H97">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3722,19 +3760,19 @@
         <v>54.444444444444443</v>
       </c>
       <c r="E98" s="7">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2">
-        <v>54.444444444444443</v>
-      </c>
-      <c r="G98" s="2">
-        <v>54.444444444444443</v>
-      </c>
-      <c r="H98" s="2">
-        <v>54.444444444444443</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F98" s="9">
+        <v>73</v>
+      </c>
+      <c r="G98">
+        <v>62</v>
+      </c>
+      <c r="H98">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3748,19 +3786,19 @@
         <v>76.666666666666671</v>
       </c>
       <c r="E99" s="7">
-        <v>0</v>
-      </c>
-      <c r="F99" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="G99" s="2">
-        <v>76.666666666666671</v>
-      </c>
-      <c r="H99" s="2">
-        <v>76.666666666666671</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F99" s="9">
+        <v>85</v>
+      </c>
+      <c r="G99">
+        <v>80</v>
+      </c>
+      <c r="H99">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3774,19 +3812,19 @@
         <v>80</v>
       </c>
       <c r="E100" s="7">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2">
+        <v>74</v>
+      </c>
+      <c r="F100" s="9">
+        <v>84</v>
+      </c>
+      <c r="G100">
         <v>80</v>
       </c>
-      <c r="G100" s="2">
-        <v>80</v>
-      </c>
-      <c r="H100" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3800,19 +3838,19 @@
         <v>82.222222222222229</v>
       </c>
       <c r="E101" s="7">
-        <v>0</v>
-      </c>
-      <c r="F101" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="G101" s="2">
-        <v>82.222222222222229</v>
-      </c>
-      <c r="H101" s="2">
-        <v>82.222222222222229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F101" s="9">
+        <v>93</v>
+      </c>
+      <c r="G101">
+        <v>80</v>
+      </c>
+      <c r="H101">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3826,19 +3864,19 @@
         <v>65.555555555555557</v>
       </c>
       <c r="E102" s="7">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2">
-        <v>65.555555555555557</v>
-      </c>
-      <c r="G102" s="2">
-        <v>65.555555555555557</v>
-      </c>
-      <c r="H102" s="2">
-        <v>65.555555555555557</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F102" s="9">
+        <v>69</v>
+      </c>
+      <c r="G102">
+        <v>37</v>
+      </c>
+      <c r="H102">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3852,19 +3890,19 @@
         <v>84.444444444444443</v>
       </c>
       <c r="E103" s="7">
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="G103" s="2">
-        <v>84.444444444444443</v>
-      </c>
-      <c r="H103" s="2">
-        <v>84.444444444444443</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F103" s="9">
+        <v>87</v>
+      </c>
+      <c r="G103">
+        <v>71</v>
+      </c>
+      <c r="H103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3878,19 +3916,19 @@
         <v>45.555555555555557</v>
       </c>
       <c r="E104" s="7">
-        <v>0</v>
-      </c>
-      <c r="F104" s="2">
-        <v>45.555555555555557</v>
-      </c>
-      <c r="G104" s="2">
-        <v>45.555555555555557</v>
-      </c>
-      <c r="H104" s="2">
-        <v>45.555555555555557</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F104" s="9">
+        <v>69</v>
+      </c>
+      <c r="G104">
+        <v>36</v>
+      </c>
+      <c r="H104">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3901,22 +3939,22 @@
         <v>210</v>
       </c>
       <c r="D105" s="2">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E105" s="7">
-        <v>0</v>
-      </c>
-      <c r="F105" s="2">
-        <v>0</v>
-      </c>
-      <c r="G105" s="2">
-        <v>0</v>
-      </c>
-      <c r="H105" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F105" s="9">
+        <v>48</v>
+      </c>
+      <c r="G105">
+        <v>13</v>
+      </c>
+      <c r="H105">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3930,19 +3968,19 @@
         <v>45.555555555555557</v>
       </c>
       <c r="E106" s="7">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2">
-        <v>45.555555555555557</v>
-      </c>
-      <c r="G106" s="2">
-        <v>45.555555555555557</v>
-      </c>
-      <c r="H106" s="2">
-        <v>45.555555555555557</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F106" s="9">
+        <v>80</v>
+      </c>
+      <c r="G106">
+        <v>71</v>
+      </c>
+      <c r="H106">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3956,19 +3994,19 @@
         <v>56.666666666666664</v>
       </c>
       <c r="E107" s="7">
-        <v>0</v>
-      </c>
-      <c r="F107" s="2">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="G107" s="2">
-        <v>56.666666666666664</v>
-      </c>
-      <c r="H107" s="2">
-        <v>56.666666666666664</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F107" s="9">
+        <v>64</v>
+      </c>
+      <c r="G107">
+        <v>53</v>
+      </c>
+      <c r="H107">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3982,19 +4020,19 @@
         <v>72.222222222222229</v>
       </c>
       <c r="E108" s="7">
-        <v>0</v>
-      </c>
-      <c r="F108" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="G108" s="2">
-        <v>72.222222222222229</v>
-      </c>
-      <c r="H108" s="2">
-        <v>72.222222222222229</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F108" s="9">
+        <v>76</v>
+      </c>
+      <c r="G108">
+        <v>73</v>
+      </c>
+      <c r="H108">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4008,19 +4046,19 @@
         <v>42.222222222222221</v>
       </c>
       <c r="E109" s="7">
-        <v>0</v>
-      </c>
-      <c r="F109" s="2">
-        <v>42.222222222222221</v>
-      </c>
-      <c r="G109" s="2">
-        <v>42.222222222222221</v>
-      </c>
-      <c r="H109" s="2">
-        <v>42.222222222222221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F109" s="9">
+        <v>80</v>
+      </c>
+      <c r="G109">
+        <v>54</v>
+      </c>
+      <c r="H109">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -4034,19 +4072,19 @@
         <v>16.666666666666668</v>
       </c>
       <c r="E110" s="7">
-        <v>0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="G110" s="2">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="H110" s="2">
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="F110" s="9">
+        <v>42</v>
+      </c>
+      <c r="G110">
+        <v>22</v>
+      </c>
+      <c r="H110">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -4057,22 +4095,22 @@
         <v>222</v>
       </c>
       <c r="D111" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E111" s="7">
-        <v>0</v>
-      </c>
-      <c r="F111" s="2">
-        <v>0</v>
-      </c>
-      <c r="G111" s="2">
-        <v>0</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F111" s="9">
+        <v>16</v>
+      </c>
+      <c r="G111">
+        <v>12</v>
+      </c>
+      <c r="H111">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -4086,19 +4124,19 @@
         <v>55.555555555555557</v>
       </c>
       <c r="E112" s="7">
-        <v>0</v>
-      </c>
-      <c r="F112" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="G112" s="2">
-        <v>55.555555555555557</v>
-      </c>
-      <c r="H112" s="2">
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F112" s="9">
+        <v>70</v>
+      </c>
+      <c r="G112">
+        <v>36</v>
+      </c>
+      <c r="H112">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -4112,19 +4150,19 @@
         <v>70</v>
       </c>
       <c r="E113" s="7">
-        <v>0</v>
-      </c>
-      <c r="F113" s="2">
-        <v>70</v>
-      </c>
-      <c r="G113" s="2">
-        <v>70</v>
-      </c>
-      <c r="H113" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F113" s="9">
+        <v>80</v>
+      </c>
+      <c r="G113">
+        <v>87</v>
+      </c>
+      <c r="H113">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -4135,22 +4173,22 @@
         <v>228</v>
       </c>
       <c r="D114" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E114" s="7">
-        <v>0</v>
-      </c>
-      <c r="F114" s="2">
-        <v>0</v>
-      </c>
-      <c r="G114" s="2">
-        <v>0</v>
-      </c>
-      <c r="H114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F114" s="9">
+        <v>27</v>
+      </c>
+      <c r="G114">
+        <v>34</v>
+      </c>
+      <c r="H114">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -4164,19 +4202,19 @@
         <v>74.444444444444443</v>
       </c>
       <c r="E115" s="7">
-        <v>0</v>
-      </c>
-      <c r="F115" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="G115" s="2">
-        <v>74.444444444444443</v>
-      </c>
-      <c r="H115" s="2">
-        <v>74.444444444444443</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F115" s="9">
+        <v>85</v>
+      </c>
+      <c r="G115">
+        <v>62</v>
+      </c>
+      <c r="H115">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -4187,19 +4225,19 @@
         <v>232</v>
       </c>
       <c r="D116" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E116" s="7">
-        <v>0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>0</v>
-      </c>
-      <c r="G116" s="2">
-        <v>0</v>
-      </c>
-      <c r="H116" s="2">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="F116" s="9">
+        <v>47</v>
+      </c>
+      <c r="G116">
+        <v>55</v>
+      </c>
+      <c r="H116">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
